--- a/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
+++ b/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
   <si>
     <t>Serie</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5377,7 +5380,24 @@
         <v>144.36</v>
       </c>
       <c r="E223">
-        <v>45.15</v>
+        <v>45.14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224">
+        <v>96.93000000000001</v>
+      </c>
+      <c r="C224">
+        <v>95</v>
+      </c>
+      <c r="D224">
+        <v>164.2</v>
+      </c>
+      <c r="E224">
+        <v>47.55</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
+++ b/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5397,7 +5400,24 @@
         <v>164.2</v>
       </c>
       <c r="E224">
-        <v>47.55</v>
+        <v>47.54</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225">
+        <v>97.23</v>
+      </c>
+      <c r="C225">
+        <v>95.81999999999999</v>
+      </c>
+      <c r="D225">
+        <v>150.58</v>
+      </c>
+      <c r="E225">
+        <v>46.48</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
+++ b/11/1/6/Índice de producción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5417,7 +5420,24 @@
         <v>150.58</v>
       </c>
       <c r="E225">
-        <v>46.48</v>
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226">
+        <v>91.42</v>
+      </c>
+      <c r="C226">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="D226">
+        <v>167.34</v>
+      </c>
+      <c r="E226">
+        <v>44.44</v>
       </c>
     </row>
   </sheetData>
